--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Thesis\Chap8-Experiment\Thesis_Chapter_8\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D0F93-B56A-4ADC-9CBA-C42D5DB9B975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87185986-95D1-4A50-BA1B-75B5730ABF3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ParticipantCounts" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Cohesion" sheetId="5" r:id="rId3"/>
     <sheet name="APIdocumentation-LabelCounts" sheetId="3" r:id="rId4"/>
     <sheet name="TimeSpent" sheetId="2" r:id="rId5"/>
+    <sheet name="ParticipantQuotations" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="355">
   <si>
     <t>Class</t>
   </si>
@@ -719,13 +720,397 @@
   </si>
   <si>
     <t>TaxID</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Quotations\Evidence</t>
+  </si>
+  <si>
+    <t>P30: ``Find end of what?''</t>
+  </si>
+  <si>
+    <t>1. Participants' comments on ``bilstateOther'' reflect confusion.</t>
+  </si>
+  <si>
+    <t>P10 (programmer): ``I think this variable is not good. Maybe, I don’t know, bilstateOther? I don’t know, I completely don’t know what this means''.</t>
+  </si>
+  <si>
+    <t>P15 (programmer): ``Bilstate Other doesn’t really make sense''</t>
+  </si>
+  <si>
+    <t>P19 (non-programmer): ``I’m not quite sure what Bilstate other is''</t>
+  </si>
+  <si>
+    <t>P38 (non-programmer): ``Bilstate Other. No, I don’t get that''</t>
+  </si>
+  <si>
+    <t>P18 (semi-programmer):  I don’t know what other is.  It’s kind of confusing, I wouldn’t know what to make of that.''</t>
+  </si>
+  <si>
+    <t>P31 (semi-programmer): Does Bilstate, is that a technical term?''</t>
+  </si>
+  <si>
+    <t>2. Majority of non-programmers thought ``stringInput'' was meaningless within the ``Employee'' entity context.</t>
+  </si>
+  <si>
+    <t>P19: ``I’m not quite sure whether that relates to employee or not''</t>
+  </si>
+  <si>
+    <t>P37: ``I select string input because it’s not meaningful within the entity context''</t>
+  </si>
+  <si>
+    <t>3. Programmers thought ``stringInput'' was not specific enough.</t>
+  </si>
+  <si>
+    <t>P17: ``This seems really, this is a really bad name, string input. I don’t know, it doesn’t say anything about what it is''</t>
+  </si>
+  <si>
+    <t>P14: ``The string input is not a very well named variable. [It does not] specify what exactly the input is''</t>
+  </si>
+  <si>
+    <t>4. Two non-programmers thought ``stringInput'' was not specific enough.</t>
+  </si>
+  <si>
+    <t>P45: ``Like what kind of information? It could be date of birth, or it could be address, house address, or a number. So string input is still not specific enough. It needs probably a bit more like, yeah, like what kind of string input''</t>
+  </si>
+  <si>
+    <t>P46: ``So it could be called like detail or observations, something like that''</t>
+  </si>
+  <si>
+    <t>5. 22.7\% programmers thought ``objRef'' is not specific enough.</t>
+  </si>
+  <si>
+    <t>P2: ``That makes sense to me because it’s object reference and then it’s, but again it’s not really giving you much of a clue as to what it’s referring to, you know, which object, what reference?''</t>
+  </si>
+  <si>
+    <t>P34: ``So, OBJ ref, it’s a bit generic sounding, but since I know that this is a something reference at, I can’t make much of a judgement on it''</t>
+  </si>
+  <si>
+    <t>6. One non-programmer thought, ``objRef'' was not specific enough</t>
+  </si>
+  <si>
+    <t>P46: ``Because I don’t know what object reference makes reference to'', ``But in a regular basis you should know if you are working on a specific project, you will know which specific object you will be referencing right?''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>7. Both programmers and non-programmers identified that ``calculateNet'' and ``calculateTax'' were not specific enough.</t>
+  </si>
+  <si>
+    <t>P1: ``calculate net means salary or tax?''</t>
+  </si>
+  <si>
+    <t>P2: ``And similar with calculate net.  It’s not even clear what net it’s referring to here. So over what kind of time''</t>
+  </si>
+  <si>
+    <t>P16: ``I don’t know if there’s a specific type, like perhaps it might be better, this looks like income tax, so perhaps better to say calculate income tax rather than just tax.  ‘Cause there’s a number of types of tax.''</t>
+  </si>
+  <si>
+    <t>P2: ``and then again the tax is, it just says calculate tax and then there’s a value coming back from it.  It’s not telling me if that’s the tax you’re paying over the year or per hour, yeah''</t>
+  </si>
+  <si>
+    <t>P26: ``This one is not really clear, net of what? Yeah.  Somewhere it should be salary''</t>
+  </si>
+  <si>
+    <t>P37: ``I select calculate net because it’s not specific.  It could be net income on a weekly basis, monthly basis, yearly basis.  It needs more clarity.''</t>
+  </si>
+  <si>
+    <t>P39: ``This one I think could be improved because they’re saying calculate tax, but it’s not giving, like, the conditions.  Calculate tax is not specific, like, whereas the data range that you were looking for or you might just check the text for each client.''</t>
+  </si>
+  <si>
+    <t>8. 40.9\% and 13.6\% programmers respectively thought ``findEnd'' and ``bytesBefore'' were not explanatory.</t>
+  </si>
+  <si>
+    <t>P16: ``I would say this would be better to say Find End like of something.  Like whether it’s like of, like Response or of List of Chars. Or just something that shows what it’s looking for the end of''</t>
+  </si>
+  <si>
+    <t>P3: ``I think if it can like have a better method name maybe.  Bytes Before.  Because we don’t have any comment and it should be a meaningful method name''</t>
+  </si>
+  <si>
+    <t>9. Non-programmers identified ``findEnd'' and ``bytesBefore'' were not explanatory.</t>
+  </si>
+  <si>
+    <t>P22: ``findEnd I have a problem with because the explanation says finds the end of a Token. But, for example, on my choice of word, the word End can mean the end of the page itself or it can mean the end of the document as a whole. So here it can mean the end of the Token or it can mean the end of the whole, how much error data you have''</t>
+  </si>
+  <si>
+    <t>P33: ``This is not very specific. findEnd of what?''</t>
+  </si>
+  <si>
+    <t>P26: ``like, get the Bytes Before, like, but bytes of what? I don’t get it''.</t>
+  </si>
+  <si>
+    <t>10. One semi-programmer identified ``findEnd'' was not explanatory.</t>
+  </si>
+  <si>
+    <t>11. Only 31.8\% programmers identified the typo in ``eglitLogger''.</t>
+  </si>
+  <si>
+    <t>P16: ``And EGIT Logger, I guess it’s, this feels like it might be a typo, the L, 'cause there’s EGIT, EGLIT, that would be problematic''</t>
+  </si>
+  <si>
+    <t>P6: ``EGIT Logger’s got an l in it, for some reason.  Possibly a typo''</t>
+  </si>
+  <si>
+    <t>12. Much larger percentages of non-programmers and semi-programmers (except in G1) identified the typo in ``eglitLogger''.</t>
+  </si>
+  <si>
+    <t>P22: ``This entity is extracted from the project name EGIT.  Eglit, no good, okay, there’s a mistake here.  So in that sense, it can be selected immediately''</t>
+  </si>
+  <si>
+    <t>P37: I select EGLIT logger because there is a typo. It’s supposed to be E-G-I-T and not E-G-L-I-T''</t>
+  </si>
+  <si>
+    <t>13. Most non-programmers and semi-programmers were capable of identifying all non-verb method names.</t>
+  </si>
+  <si>
+    <t>P36 (Non-programmer): ``well this one here, start date to end date, it doesn’t actually, say what the behavior is or what’s expected''</t>
+  </si>
+  <si>
+    <t>P22 (Non-programmer): ``Bytes Before is wrong because Bytes Before is not action''</t>
+  </si>
+  <si>
+    <t>P46 (Non-programmer): ``Transition is not, well are you using transition here?  I think transition is not a verb, right?''</t>
+  </si>
+  <si>
+    <t>P23 (Semi-programmer): ``And for start date to end date, I don’t think that’s a verb phrase''</t>
+  </si>
+  <si>
+    <t>P30 (Semi-programmer): ``Bytes before: Is that a verb? No, it’s not''</t>
+  </si>
+  <si>
+    <t>P35 (Semi-programmer): ``May be this should be transit, because this (transition) is not a verb''</t>
+  </si>
+  <si>
+    <t>14. Only 9.1\% of the programmers identified that ``startDateToEndDate'' was not a verb.</t>
+  </si>
+  <si>
+    <t>P5: ``Start date to end date. So I would probably just rename this to get start date. I would just put get here because it’s, it’s sort of a getter.''</t>
+  </si>
+  <si>
+    <t>P15: ``The start, maybe like get employee period, yeah''</t>
+  </si>
+  <si>
+    <t>15. Non-programmers and semi-programmers were struggling to determine if ``transition'' was a verb or not.</t>
+  </si>
+  <si>
+    <t>P48 asked what transition means in programming, but failed to identify that it was not a verb</t>
+  </si>
+  <si>
+    <t>P33 said ``Yeah, I think so'' when asked whether transition was a verb.</t>
+  </si>
+  <si>
+    <t>16. Programmers identified that the boolean ``billingAddress'' is defective.</t>
+  </si>
+  <si>
+    <t>P28: ``So you can say, like, billingAddressExists or isBillingAddress''</t>
+  </si>
+  <si>
+    <t>P13: ``Yeah, it’s not super clear because if you didn’t see the Boolean, like if you see him using the variable I would not think that it is a Boolean''</t>
+  </si>
+  <si>
+    <t>17. Non-programmers and semi-programmers identified that the boolean ``billingAddress'' is defective.</t>
+  </si>
+  <si>
+    <t>P45: ``Oh yeah, and also yes/no has to [start with] is''</t>
+  </si>
+  <si>
+    <t>P42: ``So Billing Address, yes/no. So if it is a yes or no then it should be, like the billing address should be modified to have it is. So like is billing address or, you know.''</t>
+  </si>
+  <si>
+    <t>P31: ``So this should have an ‘is’ in front of it because it’s a yes or no''</t>
+  </si>
+  <si>
+    <t>P40: ``They should have the is in front of it, like, is billing address, yes/no''</t>
+  </si>
+  <si>
+    <t>18. Programmers thought ``firstName'' and ``lastName'' did not belong in ``Address''.</t>
+  </si>
+  <si>
+    <t>P12: ``I think that can be moved to another class named personal information kind of thing''</t>
+  </si>
+  <si>
+    <t>P5: ``But now we have a field first name and so this already implies that this class, this doesn’t represent an address, but now it represents a person. And so perhaps the class should be renamed to person, depending on the intention of the developer or the person who wrote this code''</t>
+  </si>
+  <si>
+    <t>18. Programmers thought ``longitude'' and ``latitude'' did not belong in ``Address''.</t>
+  </si>
+  <si>
+    <t>P15: ``latitude and longitude can be its own class''</t>
+  </si>
+  <si>
+    <t>P20: ``Maybe latitude, longitude, 'cause that’s not really an address''</t>
+  </si>
+  <si>
+    <t>19. Programmers thought longitude and latitude are overkill.</t>
+  </si>
+  <si>
+    <t>P6: ``Latitude and longitude, I don’t know why they’re there, that seems to be really too much information. I can’t see why they’d be needed. If they’re needed, go for it''</t>
+  </si>
+  <si>
+    <t>20. Programmers thought ``Phone'' did not belong to ``Address''.</t>
+  </si>
+  <si>
+    <t>P34: ``it’s not something you expect to find in the class called address''</t>
+  </si>
+  <si>
+    <t>P27: ``If a class is specifically address I wouldn’t really be including first names and last names and phone numbers in there 'cause that has nothing to do with an address.  And yeah if you wanted to include those I’d make the class customer or something. Or otherwise have a separate customer class for the name and the phone number.  All of the admin stuff like city, address, state, billing address, latitude, and longitude, the country.''</t>
+  </si>
+  <si>
+    <t>21. Programmers thought calculateNet, calculatePay, and calculateTax did not belong in the ``Employee'' class.</t>
+  </si>
+  <si>
+    <t>P16: ``You could move the calculate pay net and calculate tax, or the payment related ones to a separate class, yeah, like to somewhere else associated more with the monetary side of things, potentially''</t>
+  </si>
+  <si>
+    <t>P20: ``Some class for financial handling that just maybe contains all the employee objects. And then for each month, it just calculates everything that you have to pay for everyone and outputs it''</t>
+  </si>
+  <si>
+    <t>22. Non-programmers' determination of cohesion was similar to programmers except ``calculateNet''.</t>
+  </si>
+  <si>
+    <t>P39: ``I think, yeah, there is information that we can move to another pillar.  So, for example, phone, the name of the customer and the company, all of that is related with the customer. The customer is the entity'', P45: ``Phone number, address, okay so phone is not relevant obviously because this is for address of  a customer.''</t>
+  </si>
+  <si>
+    <t>P32: ``I mean I would have, like, a separate entity for tax of employees and then I’ll have a separate, one employee profile so that you don’t sort of get it mixed up, yeah.''</t>
+  </si>
+  <si>
+    <t>23. Semi-programmers' determination of cohesion was similar to programmers except ``latitude'' and ``longitude''.</t>
+  </si>
+  <si>
+    <t>P18: ``To be honest then first name, last name has got nothing to do with address''</t>
+  </si>
+  <si>
+    <t>P30: ``The name of the company? But why is it relevant? Yeah, I don’t think it’s relevant.''</t>
+  </si>
+  <si>
+    <t>P18: ``Yeah, to be fair if there is then like maybe like if payroll is in a separate entity then I would like say half of them would better be moved over there.Like anything that involves wages.''</t>
+  </si>
+  <si>
+    <t>P23: ``Ah, yeah.  So, for String input, list of texts, unlike the other entries, they don’t really describe something that’s kind of immediately relevant to what an employee is.''</t>
+  </si>
+  <si>
+    <t>24. Non-programmers selected many other identifier names as not specific, but they fall under false positives according to the criteria we used for true positives.</t>
+  </si>
+  <si>
+    <t>P38 (Non-programmer): ``Company. Company name?''</t>
+  </si>
+  <si>
+    <t>P41 (Non-programmer): ``I feel like deductions could also be a bit more specific, as well, like what sort of deduction is it making?  Are you making a tax deduction or a KiwiSaver deduction''</t>
+  </si>
+  <si>
+    <t>P37 (Non-programmer): ``would, I select OP because I don’t think it’s specific enough. It should provide a bit more detail. OP could really mean anything, and Http Operation doesn’t help either.''</t>
+  </si>
+  <si>
+    <t>25. Identifier names that all expertise groups thought, can be more specific.</t>
+  </si>
+  <si>
+    <t>P3 (Programmer): ``the line number 89, the Response Header is for the variable, like for instance created using a HttpRespone the variable name is Response Header. Like we can maybe change the name for that to something meaningful like httpResponse or something. Otherwise a new programmer could get confused.''</t>
+  </si>
+  <si>
+    <t>P22 (Non-programmer): ``Okay, Response Content buffer would be better, but I don’t know if this is something that would be okay for non, for people who are programmers themselves.''</t>
+  </si>
+  <si>
+    <t>P30 (Semi-programmer): ``Shouldn’t that be called buffer or something instead of content?.......It says “buffer” for the response content.''</t>
+  </si>
+  <si>
+    <t>26. Two identifier names were regarded non-sensible because they were the same as the entity name.</t>
+  </si>
+  <si>
+    <t>P22 (Non-programmer): ``If you are writing address as the name of the entity, and then you’re writing address here, then there’s a lot of confusion about what is happening.''</t>
+  </si>
+  <si>
+    <t>P48 (Non-programmer): ``Yeah.  So the entity itself is a label and it has the characteristic of a label too. Yeah, so maybe I’ll highlight this one.''</t>
+  </si>
+  <si>
+    <t>P34 (Programmer): ``I’m not sure about the naming of this because it’s got the same name pretty much as the class.  And I don’t know if I like that, personally. Yeah, I can’t think of a reason off the top of my head why it shouldn’t be like that, I don’t think it’s something I’d do personally.''</t>
+  </si>
+  <si>
+    <t>P40 (Semi-programmer): ``This one is, how can there be an address of the address?''</t>
+  </si>
+  <si>
+    <t>27. Non-programmers and semi-programmers thought ``bilstateOther'' had a typo whereas it should have been detected for being meaningless.</t>
+  </si>
+  <si>
+    <t>P39 (Non-programmer): ``Bilstate, I think this is the wrong spelling, I think.''</t>
+  </si>
+  <si>
+    <t>P42 (Non-programmer): ``Bilstate Other, it might be a typo because I don’t know what Bilstate is.''</t>
+  </si>
+  <si>
+    <t>P14 (Semi-programmer): ``We have a typo here''</t>
+  </si>
+  <si>
+    <t>28. Non-programmers struggle with terms that can act as both a verb and a noun.</t>
+  </si>
+  <si>
+    <t>P19: ``To me, replay subject sounds more like a verb''</t>
+  </si>
+  <si>
+    <t>P37: ``I select Query Row Observable because it’s a, it’s not a, it is a verb because it’s more like an action, like querying row observable rather than a noun'' and said that this was applicable to all 4 observables.</t>
+  </si>
+  <si>
+    <t>29. One non-programmer and one semi-programmer thought that the attribute ``busy'' did not belong in the ``UILabel''.</t>
+  </si>
+  <si>
+    <t>P11 (Non-programmer): ``I’m not too sure if it is related.''</t>
+  </si>
+  <si>
+    <t>P14 (Semi-programmer): ``I don’t know if busy is relevant to the label so I’m gonna highlight that one.''</t>
+  </si>
+  <si>
+    <t>30. 50\% of programmers suggested expanding ``op''.</t>
+  </si>
+  <si>
+    <t>P25: ``I might think it’s operation because of the type but if I don’t have the type,  I just see it like that, then it is, there is a problem because what does op mean?''</t>
+  </si>
+  <si>
+    <t>P13: ``if you gave me the word OP without all of  [surrounding code] I would think like OP in a hospital. So yeah, maybe [the author of the code] could add a bit to it''</t>
+  </si>
+  <si>
+    <t>31. At least one of the non-programmers of all groups except for G2 (with one participant) thought that ``op'' should be expanded</t>
+  </si>
+  <si>
+    <t>P44: ``Well, I would probably prefer Operation rather than op to be more clear''</t>
+  </si>
+  <si>
+    <t>P42: ``So again with Op, not sure if that means operation or if it means something else. But yeah, either way I think that one’s a bit vague''.</t>
+  </si>
+  <si>
+    <t>32. Semi-programmers thought that ``op'' should be renamed to ``operation''.</t>
+  </si>
+  <si>
+    <t>P35: ``I think this should be operation because op can be “option” or something''</t>
+  </si>
+  <si>
+    <t>P47: ``so like op could have been better, you know, like just like the entire word, probably. Just because, you know, if you don’t see this, like, the entire HttpOperation, then you won’t really know what this is just by looking at it''.</t>
+  </si>
+  <si>
+    <t>33. P32 and P37 thought ``URI'' should be ``URL'' because of their familiarity with the term ``URL''.</t>
+  </si>
+  <si>
+    <t>P32: ``Is that supposed to be URI or URL?''</t>
+  </si>
+  <si>
+    <t>P37: ``I select Icon URL because there is a typo.  It should be capital L.''</t>
+  </si>
+  <si>
+    <t>34. Programmers and non-programmers prefer unfamiliar abbreviations to be expanded because that would help them to search for its meaning.</t>
+  </si>
+  <si>
+    <t>P25 (programmer): ``For me [the expanded form of YTD] would be better because, like I don’t know. I would have to Google it. I don’t know this word.''</t>
+  </si>
+  <si>
+    <t>P22 (non-programmer): ``If this information above (the long form of YTD was given to the participant as a part of the question) is not given, I would think it [is] difficult [to understand]. And therefore, it should be year to date''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,8 +1137,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +1162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -962,12 +1361,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,9 +1383,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,6 +1397,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,434 +1713,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="26">
         <v>22</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="28">
-        <v>19</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="26">
+        <v>19</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <v>9</v>
       </c>
-      <c r="C8" s="30">
-        <v>7</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="28">
+        <v>7</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="25"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="25"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
-        <v>1</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
         <v>0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28">
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <v>2</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>3</v>
       </c>
-      <c r="L14" s="28">
-        <v>1</v>
-      </c>
-      <c r="M14" s="25"/>
+      <c r="L14" s="26">
+        <v>1</v>
+      </c>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26">
         <v>6</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="26">
         <v>9</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8128,7 +8539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B503903-99C3-4F33-9D24-8CAF419CED7E}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -8140,600 +8551,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="33">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="33">
         <v>4</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="33">
         <v>8</v>
       </c>
-      <c r="E3" s="36">
-        <v>1</v>
-      </c>
-      <c r="F3" s="34"/>
+      <c r="E3" s="33">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="D5" s="31"/>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>1</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="33">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <v>13</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36">
+      <c r="E6" s="31"/>
+      <c r="F6" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="36">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="33">
         <v>10</v>
       </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
-        <v>1</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="33">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="36">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="33">
         <v>3</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="33">
         <v>14</v>
       </c>
-      <c r="E11" s="36">
-        <v>1</v>
-      </c>
-      <c r="F11" s="36">
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>1</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="33">
         <v>4</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="36">
-        <v>7</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="33">
+        <v>7</v>
+      </c>
+      <c r="E14" s="33">
         <v>4</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="33">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36">
+      <c r="D15" s="31"/>
+      <c r="E15" s="33">
         <v>6</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="33">
         <v>3</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="33">
         <v>2</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="36">
+      <c r="E16" s="31"/>
+      <c r="F16" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="33">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="33">
         <v>13</v>
       </c>
-      <c r="E17" s="36">
-        <v>1</v>
-      </c>
-      <c r="F17" s="34"/>
+      <c r="E17" s="33">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="A18" s="33">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="36">
+      <c r="D18" s="31"/>
+      <c r="E18" s="33">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="33">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36">
+      <c r="D19" s="31"/>
+      <c r="E19" s="33">
         <v>3</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="34" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="33">
         <v>3</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="33">
         <v>3</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="36">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
-        <v>1</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="33">
+        <v>1</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="36">
-        <v>7</v>
-      </c>
-      <c r="E22" s="36">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34"/>
+      <c r="D22" s="33">
+        <v>7</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="33">
         <v>4</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36">
+      <c r="D23" s="31"/>
+      <c r="E23" s="33">
         <v>4</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="33">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="33">
         <v>9</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="33">
         <v>6</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
-        <v>1</v>
-      </c>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="33">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="36">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="33">
         <v>2</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+      <c r="A27" s="33">
         <v>4</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="36">
-        <v>1</v>
-      </c>
-      <c r="F27" s="34"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
+      <c r="A28" s="33">
         <v>4</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="36">
-        <v>1</v>
-      </c>
-      <c r="F28" s="34"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="33">
         <v>3</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="36">
-        <v>1</v>
-      </c>
-      <c r="E29" s="36">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36">
+      <c r="D29" s="33">
+        <v>1</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
-        <v>1</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="33">
+        <v>1</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="36">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="A31" s="33">
         <v>4</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="36">
+      <c r="D31" s="31"/>
+      <c r="E31" s="33">
         <v>3</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
+      <c r="A32" s="33">
         <v>4</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="36">
-        <v>1</v>
-      </c>
-      <c r="F32" s="34"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="33">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="33">
         <v>3</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="33">
         <v>2</v>
       </c>
-      <c r="E33" s="36">
-        <v>1</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="E33" s="33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
-        <v>1</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="34" t="s">
+      <c r="A34" s="33">
+        <v>1</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="36">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="33">
         <v>4</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="36">
+      <c r="D35" s="31"/>
+      <c r="E35" s="33">
         <v>2</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8762,10 +9173,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="19" t="s">
         <v>146</v>
       </c>
@@ -10650,4 +11061,731 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475F54A-829E-4262-8055-9D559D73CB07}">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:A92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="100.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+      <c r="B46" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+      <c r="B49" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+      <c r="B52" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+      <c r="B54" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="40"/>
+      <c r="B63" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="40"/>
+      <c r="B70" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
+      <c r="B75" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="40"/>
+      <c r="B77" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="40"/>
+      <c r="B78" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
+      <c r="B82" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="40"/>
+      <c r="B84" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="40"/>
+      <c r="B86" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>